--- a/biology/Botanique/Leucaena_esculenta/Leucaena_esculenta.xlsx
+++ b/biology/Botanique/Leucaena_esculenta/Leucaena_esculenta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leucaena esculenta, appelé localement guaje rojo, guaje colorado, est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Mimosoideae, originaire du Mexique.
 Ce sont des arbres de taille moyenne à petite, aux feuilles caduques, composées bipennées.
-Ces arbres produisent des gousses, comestibles lorsqu'elles sont encore vertes, qui sont récoltées par les populations indigènes à partir des populations sauvages. Le feuillage est utilisé comme fourrage pour le bétail. Ils fournissent aussi du bois d'œuvre ou du bois de chauffage, et divers services en agroforesterie, notamment comme arbres d'ombrage[2].   
+Ces arbres produisent des gousses, comestibles lorsqu'elles sont encore vertes, qui sont récoltées par les populations indigènes à partir des populations sauvages. Le feuillage est utilisé comme fourrage pour le bétail. Ils fournissent aussi du bois d'œuvre ou du bois de chauffage, et divers services en agroforesterie, notamment comme arbres d'ombrage.   
 </t>
         </is>
       </c>
@@ -515,15 +527,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (27 décembre 2018)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (27 décembre 2018) :
 Acacia esculenta DC.
 Leucaena confusa Britton &amp; Rose
 Leucaena doylei Britton &amp; Rose
 Leucaena esculenta subsp. matudae Zárate
 Mimosa esculenta Sesse &amp; Moc.
-Liste des sous-espèces
-Selon Tropicos                                           (27 décembre 2018)[3] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Leucaena_esculenta</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leucaena_esculenta</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (27 décembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Leucaena esculenta subsp. collinsii (Britton &amp; Rose) Zárate
 Leucaena esculenta subsp. esculenta
 Leucaena esculenta subsp. matudae Zárate
